--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -883,88 +883,88 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8673469387755102</v>
+        <v>0.8519736842105263</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9010600706713781</v>
+        <v>0.9151943462897526</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8838821490467937</v>
+        <v>0.8824531516183985</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.9</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6966292134831461</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="M3" t="n">
-        <v>0.794871794871795</v>
+        <v>0.7924528301886792</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8165680473372781</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7670454545454546</v>
+        <v>0.7840909090909091</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7988165680473372</v>
+        <v>0.8</v>
       </c>
       <c r="U3" t="n">
         <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8743169398907104</v>
+        <v>0.8492063492063492</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9411764705882352</v>
+        <v>0.9441176470588236</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.906515580736544</v>
+        <v>0.8941504178272981</v>
       </c>
       <c r="AB3" t="n">
         <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AD3" t="n">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>0.8390804597701149</v>
@@ -982,61 +982,61 @@
         <v>4</v>
       </c>
       <c r="AK3" t="n">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="AL3" t="n">
         <v>8</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8724137931034482</v>
+        <v>0.8543046357615894</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7597597597597597</v>
+        <v>0.7747747747747747</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.812199036918138</v>
+        <v>0.8125984251968504</v>
       </c>
       <c r="AP3" t="n">
         <v>4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8252148997134671</v>
+        <v>0.8044692737430168</v>
       </c>
       <c r="AU3" t="n">
         <v>0.9201277955271564</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8700906344410876</v>
+        <v>0.8584202682563339</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="AZ3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8550277606415793</v>
+        <v>0.8470080197409007</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8422196444288775</v>
+        <v>0.8353094018536817</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8550277606415793</v>
+        <v>0.8470080197409007</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9105691056910568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8904593639575972</v>
+        <v>0.7915194346289752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8734835355285961</v>
+        <v>0.8468809073724006</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.9016393442622952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6741573033707865</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7741935483870969</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8012048192771084</v>
+        <v>0.7189189189189189</v>
       </c>
       <c r="S2" t="n">
         <v>0.7556818181818182</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8610354223433242</v>
+        <v>0.8714285714285714</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8939179632248939</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.7473684210526316</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.8160919540229885</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.7802197802197802</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7861271676300579</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7387387387387387</v>
+        <v>0.8168168168168168</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.7935483870967741</v>
+        <v>0.801178203240059</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8107344632768362</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9169329073482428</v>
+        <v>0.8722044728434505</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8605697151424289</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.8408389882788402</v>
+        <v>0.8223318938926588</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.8237991964904899</v>
+        <v>0.8030317111232256</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8408389882788402</v>
+        <v>0.8223318938926588</v>
       </c>
     </row>
     <row r="3">
@@ -883,160 +883,160 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8519736842105263</v>
+        <v>0.9163346613545816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9151943462897526</v>
+        <v>0.8127208480565371</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8824531516183985</v>
+        <v>0.8614232209737827</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
+        <v>337</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6404494382022472</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7651006711409395</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>355</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.7305699481865285</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.8011363636363636</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.7642276422764227</v>
+      </c>
+      <c r="U3" t="n">
+        <v>17</v>
+      </c>
+      <c r="V3" t="n">
+        <v>25</v>
+      </c>
+      <c r="W3" t="n">
         <v>345</v>
       </c>
-      <c r="J3" t="n">
+      <c r="X3" t="n">
         <v>14</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7924528301886792</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="Y3" t="n">
+        <v>0.9002932551319648</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9029411764705882</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9016152716593244</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>339</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.7912087912087912</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.8089887640449438</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>366</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.8165680473372781</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.7840909090909091</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U3" t="n">
-        <v>6</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>360</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.8492063492063492</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.9441176470588236</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.8941504178272981</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>348</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.8390804597701149</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4</v>
       </c>
       <c r="AK3" t="n">
         <v>363</v>
       </c>
       <c r="AL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.7955182072829131</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.8528528528528528</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.8231884057971014</v>
+      </c>
+      <c r="AP3" t="n">
         <v>8</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.8543046357615894</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.7747747747747747</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.8125984251968504</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>4</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8044692737430168</v>
+        <v>0.8294117647058824</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9201277955271564</v>
+        <v>0.9009584664536742</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8584202682563339</v>
+        <v>0.8637059724349158</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AZ3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8470080197409007</v>
+        <v>0.8359037631091919</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8353094018536817</v>
+        <v>0.8178871705321628</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8470080197409007</v>
+        <v>0.8359037631091918</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -1030,13 +1030,13 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8359037631091919</v>
+        <v>0.8346699568167798</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8178871705321628</v>
+        <v>0.8170379641298318</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8359037631091918</v>
+        <v>0.8346699568167798</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9105691056910568</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7915194346289752</v>
+        <v>0.8268551236749117</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8468809073724006</v>
+        <v>0.8555758683729433</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9016393442622952</v>
+        <v>0.7875</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6179775280898876</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7189189189189189</v>
+        <v>0.7176470588235294</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7556818181818182</v>
+        <v>0.6931818181818182</v>
       </c>
       <c r="T2" t="n">
-        <v>0.736842105263158</v>
+        <v>0.7052023121387283</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8714285714285714</v>
+        <v>0.8825214899713467</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8970588235294118</v>
+        <v>0.9058823529411764</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8840579710144928</v>
+        <v>0.8940493468795356</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8160919540229885</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7802197802197802</v>
+        <v>0.7734806629834253</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7861271676300579</v>
+        <v>0.8538961038961039</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8168168168168168</v>
+        <v>0.7897897897897898</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.801178203240059</v>
+        <v>0.8205928237129484</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.800561797752809</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.8722044728434505</v>
+        <v>0.9105431309904152</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8520179372197308</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.8223318938926588</v>
+        <v>0.8297347316471314</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.8030317111232256</v>
+        <v>0.8066401544978323</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8223318938926588</v>
+        <v>0.8297347316471314</v>
       </c>
     </row>
     <row r="3">
@@ -883,160 +883,160 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9163346613545816</v>
+        <v>0.8909774436090225</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8127208480565371</v>
+        <v>0.8374558303886925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8614232209737827</v>
+        <v>0.8633879781420766</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>352</v>
+      </c>
+      <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="I3" t="n">
-        <v>337</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7764705882352941</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>363</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.7277777777777777</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.7443181818181818</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.7359550561797752</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10</v>
+      </c>
+      <c r="V3" t="n">
+        <v>20</v>
+      </c>
+      <c r="W3" t="n">
+        <v>357</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8835227272727273</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9147058823529411</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.898843930635838</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>347</v>
+      </c>
+      <c r="AE3" t="n">
         <v>17</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6404494382022472</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7651006711409395</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>355</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.7305699481865285</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.8011363636363636</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.7642276422764227</v>
-      </c>
-      <c r="U3" t="n">
-        <v>17</v>
-      </c>
-      <c r="V3" t="n">
-        <v>25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>345</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.9002932551319648</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.9029411764705882</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.9016152716593244</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>339</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
       <c r="AF3" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.7734806629834253</v>
       </c>
       <c r="AI3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7955182072829131</v>
+        <v>0.8774193548387097</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.8528528528528528</v>
+        <v>0.8168168168168168</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8231884057971014</v>
+        <v>0.8460342146189735</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8294117647058824</v>
+        <v>0.8033240997229917</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9009584664536742</v>
+        <v>0.926517571884984</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8637059724349158</v>
+        <v>0.8605341246290801</v>
       </c>
       <c r="AW3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8346699568167798</v>
+        <v>0.8396051819864281</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8170379641298318</v>
+        <v>0.8175454284758682</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8346699568167798</v>
+        <v>0.8396051819864281</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -919,52 +919,52 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q3" t="n">
         <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.75</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7443181818181818</v>
+        <v>0.7329545454545454</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7359550561797752</v>
+        <v>0.7413793103448275</v>
       </c>
       <c r="U3" t="n">
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="W3" t="n">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8835227272727273</v>
+        <v>0.9014492753623188</v>
       </c>
       <c r="Z3" t="n">
         <v>0.9147058823529411</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.898843930635838</v>
+        <v>0.9080291970802919</v>
       </c>
       <c r="AB3" t="n">
         <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>0.7446808510638298</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -1003,40 +1003,40 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8033240997229917</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.926517571884984</v>
+        <v>0.9201277955271564</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8605341246290801</v>
+        <v>0.8609865470852017</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8396051819864281</v>
+        <v>0.8426896977174584</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8175454284758682</v>
+        <v>0.8195711403345387</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8396051819864281</v>
+        <v>0.8426896977174584</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -883,22 +883,22 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8909774436090225</v>
+        <v>0.8969465648854962</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8374558303886925</v>
+        <v>0.8303886925795053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8633879781420766</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -919,28 +919,28 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="Q3" t="n">
         <v>7</v>
       </c>
       <c r="R3" t="n">
-        <v>0.75</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7329545454545454</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7413793103448275</v>
+        <v>0.7337278106508877</v>
       </c>
       <c r="U3" t="n">
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -961,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>0.7446808510638298</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -1003,37 +1003,37 @@
         <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.8158640226628895</v>
       </c>
       <c r="AU3" t="n">
         <v>0.9201277955271564</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8609865470852017</v>
+        <v>0.8648648648648648</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY3" t="n">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
         <v>0.8426896977174584</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8195711403345387</v>
+        <v>0.8198033382132811</v>
       </c>
       <c r="BC3" t="n">
         <v>0.8426896977174584</v>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -883,160 +883,160 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8969465648854962</v>
+        <v>0.8697183098591549</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8303886925795053</v>
+        <v>0.872791519434629</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.8712522045855379</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>325</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8513513513513513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7415730337078652</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7764705882352941</v>
+        <v>0.7730061349693251</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7654320987654321</v>
+        <v>0.7514792899408284</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7215909090909091</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7337278106508877</v>
+        <v>0.736231884057971</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9014492753623188</v>
+        <v>0.9120234604105572</v>
       </c>
       <c r="Z3" t="n">
         <v>0.9147058823529411</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9080291970802919</v>
+        <v>0.9133627019089574</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE3" t="n">
         <v>3</v>
       </c>
-      <c r="AD3" t="n">
-        <v>323</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
       <c r="AF3" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.8045977011494253</v>
+        <v>0.8850574712643678</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7734806629834253</v>
+        <v>0.8062827225130891</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8774193548387097</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.8168168168168168</v>
+        <v>0.7927927927927928</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8460342146189735</v>
+        <v>0.8288854003139716</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AR3" t="n">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8158640226628895</v>
+        <v>0.8056338028169014</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9201277955271564</v>
+        <v>0.9137380191693292</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8648648648648648</v>
+        <v>0.8562874251497007</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>318</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8426896977174584</v>
+        <v>0.837137569401604</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8198033382132811</v>
+        <v>0.816253330285584</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8426896977174584</v>
+        <v>0.837137569401604</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -883,109 +883,109 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8697183098591549</v>
+        <v>0.8872180451127819</v>
       </c>
       <c r="E3" t="n">
-        <v>0.872791519434629</v>
+        <v>0.833922261484099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8712522045855379</v>
+        <v>0.859744990892532</v>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8513513513513513</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L3" t="n">
         <v>0.7078651685393258</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7730061349693251</v>
+        <v>0.7544910179640719</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7514792899408284</v>
+        <v>0.7398843930635838</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7215909090909091</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="T3" t="n">
-        <v>0.736231884057971</v>
+        <v>0.7335243553008597</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9120234604105572</v>
+        <v>0.8988439306358381</v>
       </c>
       <c r="Z3" t="n">
         <v>0.9147058823529411</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9133627019089574</v>
+        <v>0.9067055393586008</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7403846153846154</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.8850574712643678</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.8062827225130891</v>
+        <v>0.7734806629834253</v>
       </c>
       <c r="AI3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>0.868421052631579</v>
@@ -1009,34 +1009,34 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8056338028169014</v>
+        <v>0.8033707865168539</v>
       </c>
       <c r="AU3" t="n">
         <v>0.9137380191693292</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8562874251497007</v>
+        <v>0.8550074738415545</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ3" t="n">
         <v>4</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.837137569401604</v>
+        <v>0.8315854410857495</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.816253330285584</v>
+        <v>0.8087967983603749</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.837137569401604</v>
+        <v>0.8315854410857495</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8464285714285714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8268551236749117</v>
+        <v>0.8374558303886925</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8555758683729433</v>
+        <v>0.8419182948490231</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7078651685393258</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7455621301775148</v>
+        <v>0.7483870967741937</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7176470588235294</v>
+        <v>0.8590604026845637</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6931818181818182</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7052023121387283</v>
+        <v>0.7876923076923077</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8825214899713467</v>
+        <v>0.9044776119402984</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9058823529411764</v>
+        <v>0.8911764705882353</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8940493468795356</v>
+        <v>0.8977777777777779</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.8904109589041096</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8045977011494253</v>
+        <v>0.7471264367816092</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7734806629834253</v>
+        <v>0.8125</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8538961038961039</v>
+        <v>0.7790697674418605</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7897897897897898</v>
+        <v>0.8048048048048048</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.8205928237129484</v>
+        <v>0.7917282127031019</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.800561797752809</v>
+        <v>0.7540106951871658</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9105431309904152</v>
+        <v>0.9009584664536742</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8520179372197308</v>
+        <v>0.8209606986899564</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.8297347316471314</v>
+        <v>0.8272671190623072</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.8066401544978323</v>
+        <v>0.8144234840694801</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8297347316471314</v>
+        <v>0.8272671190623072</v>
       </c>
     </row>
     <row r="3">
@@ -883,160 +883,160 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8872180451127819</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.833922261484099</v>
+        <v>0.8409893992932862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.859744990892532</v>
+        <v>0.8576576576576577</v>
       </c>
       <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>338</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9253731343283582</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6966292134831461</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.794871794871795</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>363</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.7329545454545454</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.8037383177570093</v>
+      </c>
+      <c r="U3" t="n">
         <v>5</v>
       </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.7078651685393258</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7544910179640719</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.7398843930635838</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.7335243553008597</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>345</v>
+      </c>
+      <c r="X3" t="n">
         <v>10</v>
       </c>
-      <c r="V3" t="n">
-        <v>13</v>
-      </c>
-      <c r="W3" t="n">
-        <v>25</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0.8988439306358381</v>
+        <v>0.9104046242774566</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9147058823529411</v>
+        <v>0.9264705882352942</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9067055393586008</v>
+        <v>0.9183673469387756</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7446808510638298</v>
+        <v>0.8720930232558139</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.8045977011494253</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7734806629834253</v>
+        <v>0.8670520231213873</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.868421052631579</v>
+        <v>0.7780898876404494</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7927927927927928</v>
+        <v>0.8318318318318318</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.8288854003139716</v>
+        <v>0.8040638606676342</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8033707865168539</v>
+        <v>0.7945945945945946</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9137380191693292</v>
+        <v>0.939297124600639</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8550074738415545</v>
+        <v>0.8609077598828697</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="AZ3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8315854410857495</v>
+        <v>0.8408389882788402</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8087967983603749</v>
+        <v>0.8319496269087686</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8315854410857495</v>
+        <v>0.8408389882788402</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8464285714285714</v>
+        <v>0.918032786885246</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8374558303886925</v>
+        <v>0.7915194346289752</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8419182948490231</v>
+        <v>0.8500948766603416</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8676470588235294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.651685393258427</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7483870967741937</v>
+        <v>0.7515923566878979</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8590604026845637</v>
+        <v>0.7351351351351352</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.7534626038781164</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9044776119402984</v>
+        <v>0.9449838187702264</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8911764705882353</v>
+        <v>0.8588235294117647</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8977777777777779</v>
+        <v>0.8998459167950693</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8904109589041096</v>
+        <v>0.8831168831168831</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7471264367816092</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7790697674418605</v>
+        <v>0.776536312849162</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.8048048048048048</v>
+        <v>0.8348348348348348</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.7917282127031019</v>
+        <v>0.8046309696092621</v>
       </c>
       <c r="AP2" t="n">
         <v>0</v>
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7540106951871658</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9009584664536742</v>
+        <v>0.9201277955271564</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.8209606986899564</v>
+        <v>0.831168831168831</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.8272671190623072</v>
+        <v>0.8297347316471314</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.8144234840694801</v>
+        <v>0.8171519782117779</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.8272671190623072</v>
+        <v>0.8297347316471314</v>
       </c>
     </row>
     <row r="3">
@@ -883,160 +883,160 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8409893992932862</v>
+        <v>0.7950530035335689</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8576576576576577</v>
+        <v>0.8555133079847909</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>357</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8783783783783784</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7303370786516854</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7975460122699387</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>369</v>
+      </c>
+      <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>338</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9253731343283582</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6966292134831461</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7</v>
-      </c>
-      <c r="P3" t="n">
-        <v>363</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8</v>
-      </c>
       <c r="R3" t="n">
-        <v>0.8896551724137931</v>
+        <v>0.7365591397849462</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7329545454545454</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8037383177570093</v>
+        <v>0.7569060773480663</v>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>360</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.948220064724919</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.861764705882353</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9029275808936826</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>349</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.7816091954022989</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.8343558282208589</v>
+      </c>
+      <c r="AI3" t="n">
         <v>1</v>
       </c>
-      <c r="W3" t="n">
-        <v>345</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.9104046242774566</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.9264705882352942</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.9183673469387756</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>338</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.8720930232558139</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.8670520231213873</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>369</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.7849162011173184</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.8438438438438438</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.813314037626628</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>343</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.7578125</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9297124600638976</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.8350071736011478</v>
+      </c>
+      <c r="AW3" t="n">
         <v>5</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>358</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.7780898876404494</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.8318318318318318</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.8040638606676342</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>327</v>
-      </c>
-      <c r="AS3" t="n">
+      <c r="AX3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>346</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>17</v>
       </c>
-      <c r="AT3" t="n">
-        <v>0.7945945945945946</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.939297124600639</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.8609077598828697</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>328</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>25</v>
-      </c>
       <c r="BA3" t="n">
-        <v>0.8408389882788402</v>
+        <v>0.8322023442319556</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.8319496269087686</v>
+        <v>0.824676567021829</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8408389882788402</v>
+        <v>0.8322023442319556</v>
       </c>
     </row>
   </sheetData>

--- a/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
+++ b/figs/main_coarse_vit_b_16_lr0.0001/results.xlsx
@@ -883,67 +883,67 @@
         <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.925925925925926</v>
+        <v>0.9224489795918368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7950530035335689</v>
+        <v>0.7985865724381626</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8555133079847909</v>
+        <v>0.8560606060606061</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>357</v>
+        <v>711</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8783783783783784</v>
+        <v>0.9154929577464788</v>
       </c>
       <c r="L3" t="n">
         <v>0.7303370786516854</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7975460122699387</v>
+        <v>0.8125</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>369</v>
+        <v>735</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7365591397849462</v>
+        <v>0.7244897959183674</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7784090909090909</v>
+        <v>0.8068181818181818</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7569060773480663</v>
+        <v>0.7634408602150539</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="W3" t="n">
-        <v>360</v>
+        <v>716</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>0.948220064724919</v>
@@ -961,31 +961,31 @@
         <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>349</v>
+        <v>697</v>
       </c>
       <c r="AE3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.847457627118644</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
       </c>
-      <c r="AF3" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.7816091954022989</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.8343558282208589</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
+        <v>734</v>
+      </c>
+      <c r="AL3" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>369</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2</v>
       </c>
       <c r="AM3" t="n">
         <v>0.7849162011173184</v>
@@ -1003,40 +1003,40 @@
         <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>343</v>
+        <v>685</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.7578125</v>
+        <v>0.7597911227154047</v>
       </c>
       <c r="AU3" t="n">
         <v>0.9297124600638976</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.8350071736011478</v>
+        <v>0.8362068965517242</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>346</v>
+        <v>690</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8322023442319556</v>
+        <v>0.8359037631091919</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.824676567021829</v>
+        <v>0.8309558630209862</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8322023442319556</v>
+        <v>0.8359037631091918</v>
       </c>
     </row>
   </sheetData>
